--- a/sofaplayer/Serie_A/Sassuolo_stats.xlsx
+++ b/sofaplayer/Serie_A/Sassuolo_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>826198</v>
       </c>
       <c r="E2" t="n">
-        <v>6.5391304347826</v>
+        <v>6.575</v>
       </c>
       <c r="F2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
         <v>23</v>
       </c>
-      <c r="G2" t="n">
-        <v>22</v>
-      </c>
       <c r="H2" t="n">
-        <v>1823</v>
+        <v>1895</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1731</v>
+        <v>5.9069</v>
       </c>
       <c r="L2" t="n">
-        <v>455.75</v>
+        <v>379</v>
       </c>
       <c r="M2" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>7.843137254902</v>
+        <v>9.4339622641509</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1080,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
@@ -1098,43 +1098,43 @@
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.76740318</v>
+        <v>0.87908018</v>
       </c>
       <c r="AB2" t="n">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="AC2" t="n">
         <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AF2" t="n">
-        <v>70.731707317073</v>
+        <v>70.88235294117599</v>
       </c>
       <c r="AG2" t="n">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AH2" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AI2" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AJ2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>77.777777777778</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
         <v>13</v>
@@ -1179,25 +1179,25 @@
         <v>25</v>
       </c>
       <c r="BA2" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BB2" t="n">
-        <v>39.795918367347</v>
+        <v>40</v>
       </c>
       <c r="BC2" t="n">
         <v>32</v>
       </c>
       <c r="BD2" t="n">
-        <v>46.376811594203</v>
+        <v>45.714285714286</v>
       </c>
       <c r="BE2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BF2" t="n">
-        <v>36.220472440945</v>
+        <v>36.923076923077</v>
       </c>
       <c r="BG2" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BH2" t="n">
         <v>8</v>
@@ -1206,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="BJ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK2" t="n">
         <v>1</v>
@@ -1221,28 +1221,28 @@
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>150.4</v>
+        <v>157.8</v>
       </c>
       <c r="BR2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT2" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BW2" t="n">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CA2" t="n">
         <v>7</v>
       </c>
       <c r="CB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CC2" t="n">
         <v>16</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CK2" t="n">
         <v>4</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CS2" t="n">
         <v>12</v>
@@ -1317,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="CU2" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="CV2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="CZ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DA2" t="n">
         <v>4</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="DG2" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>788061</v>
       </c>
       <c r="E3" t="n">
-        <v>6.6176470588235</v>
+        <v>6.6055555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1409,13 +1409,13 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5657</v>
+        <v>5.6007</v>
       </c>
       <c r="L3" t="n">
-        <v>357.66666666667</v>
+        <v>363.66666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
@@ -1424,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>10.714285714286</v>
+        <v>10.344827586207</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.46355893</v>
+        <v>0.46910504</v>
       </c>
       <c r="AB3" t="n">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1469,22 +1469,22 @@
         <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AF3" t="n">
-        <v>78.421052631579</v>
+        <v>78.17258883248699</v>
       </c>
       <c r="AG3" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AH3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ3" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
@@ -1508,16 +1508,16 @@
         <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AS3" t="n">
         <v>3</v>
       </c>
       <c r="AT3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1538,13 +1538,13 @@
         <v>74</v>
       </c>
       <c r="BB3" t="n">
-        <v>47.435897435897</v>
+        <v>46.835443037975</v>
       </c>
       <c r="BC3" t="n">
         <v>38</v>
       </c>
       <c r="BD3" t="n">
-        <v>41.304347826087</v>
+        <v>40.425531914894</v>
       </c>
       <c r="BE3" t="n">
         <v>36</v>
@@ -1553,16 +1553,16 @@
         <v>56.25</v>
       </c>
       <c r="BG3" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="BH3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI3" t="n">
         <v>18</v>
       </c>
       <c r="BJ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK3" t="n">
         <v>1</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>112.5</v>
+        <v>118.9</v>
       </c>
       <c r="BR3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS3" t="n">
         <v>3</v>
       </c>
       <c r="BT3" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BU3" t="n">
         <v>1</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CA3" t="n">
         <v>4</v>
       </c>
       <c r="CB3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CC3" t="n">
         <v>4</v>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="CU3" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="CV3" t="n">
         <v>28</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="DG3" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>253367</v>
       </c>
       <c r="E5" t="n">
-        <v>7.0928571428571</v>
+        <v>7.0666666666667</v>
       </c>
       <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" t="n">
         <v>14</v>
       </c>
-      <c r="G5" t="n">
-        <v>13</v>
-      </c>
       <c r="H5" t="n">
-        <v>1072</v>
+        <v>1156</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -2121,13 +2121,13 @@
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9562</v>
+        <v>3.9993</v>
       </c>
       <c r="L5" t="n">
-        <v>214.4</v>
+        <v>231.2</v>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" t="n">
         <v>12</v>
@@ -2136,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>20</v>
+        <v>19.230769230769</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -2169,67 +2169,67 @@
         <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.77849701</v>
+        <v>1.85482011</v>
       </c>
       <c r="AB5" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="AC5" t="n">
         <v>3</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="AF5" t="n">
-        <v>77.32240437158499</v>
+        <v>77.948717948718</v>
       </c>
       <c r="AG5" t="n">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="AH5" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AI5" t="n">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AJ5" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>57.894736842105</v>
+        <v>55.813953488372</v>
       </c>
       <c r="AM5" t="n">
         <v>8</v>
       </c>
       <c r="AN5" t="n">
-        <v>25.806451612903</v>
+        <v>24.242424242424</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS5" t="n">
         <v>10</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2241,40 +2241,40 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29.411764705882</v>
+        <v>31.578947368421</v>
       </c>
       <c r="BA5" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="BB5" t="n">
-        <v>43.636363636364</v>
+        <v>43.697478991597</v>
       </c>
       <c r="BC5" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BD5" t="n">
-        <v>43.010752688172</v>
+        <v>43.564356435644</v>
       </c>
       <c r="BE5" t="n">
         <v>8</v>
       </c>
       <c r="BF5" t="n">
-        <v>47.058823529412</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG5" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="BH5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BI5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BJ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK5" t="n">
         <v>2</v>
@@ -2289,22 +2289,22 @@
         <v>2</v>
       </c>
       <c r="BO5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>99.3</v>
+        <v>106</v>
       </c>
       <c r="BR5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS5" t="n">
         <v>8</v>
       </c>
       <c r="BT5" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,16 +2322,16 @@
         <v>1</v>
       </c>
       <c r="BZ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CA5" t="n">
         <v>6</v>
       </c>
       <c r="CB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CD5" t="n">
         <v>21</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK5" t="n">
         <v>3</v>
@@ -2376,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CS5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CT5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CU5" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="CV5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="DA5" t="n">
         <v>10</v>
       </c>
       <c r="DB5" t="n">
-        <v>62.5</v>
+        <v>58.823529411765</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="DG5" t="n">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1134351</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0238095238095</v>
+        <v>7.0136363636364</v>
       </c>
       <c r="F7" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" t="n">
         <v>21</v>
       </c>
-      <c r="G7" t="n">
-        <v>20</v>
-      </c>
       <c r="H7" t="n">
-        <v>1682</v>
+        <v>1772</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2836,7 +2836,7 @@
         <v>2.7526</v>
       </c>
       <c r="L7" t="n">
-        <v>420.5</v>
+        <v>443</v>
       </c>
       <c r="M7" t="n">
         <v>15</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.32870743</v>
+        <v>1.34780673</v>
       </c>
       <c r="AB7" t="n">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="AC7" t="n">
         <v>1</v>
@@ -2893,28 +2893,28 @@
         <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="AF7" t="n">
-        <v>90.64039408867001</v>
+        <v>90.625</v>
       </c>
       <c r="AG7" t="n">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="AH7" t="n">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AI7" t="n">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AJ7" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>80.434782608696</v>
+        <v>80.85106382978699</v>
       </c>
       <c r="AM7" t="n">
         <v>1</v>
@@ -2926,19 +2926,19 @@
         <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
       </c>
       <c r="AR7" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AS7" t="n">
         <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="n">
         <v>2</v>
@@ -2959,25 +2959,25 @@
         <v>65.51724137930999</v>
       </c>
       <c r="BA7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BB7" t="n">
-        <v>56.153846153846</v>
+        <v>56.060606060606</v>
       </c>
       <c r="BC7" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BD7" t="n">
-        <v>57.627118644068</v>
+        <v>57.983193277311</v>
       </c>
       <c r="BE7" t="n">
         <v>5</v>
       </c>
       <c r="BF7" t="n">
-        <v>41.666666666667</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BG7" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BH7" t="n">
         <v>17</v>
@@ -3001,22 +3001,22 @@
         <v>2</v>
       </c>
       <c r="BO7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>147.5</v>
+        <v>154.3</v>
       </c>
       <c r="BR7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS7" t="n">
         <v>4</v>
       </c>
       <c r="BT7" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3043,28 +3043,28 @@
         <v>16</v>
       </c>
       <c r="CC7" t="n">
+        <v>27</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>19</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
         <v>24</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>16</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>23</v>
       </c>
       <c r="CK7" t="n">
         <v>3</v>
@@ -3097,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="CU7" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="DA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB7" t="n">
-        <v>47.058823529412</v>
+        <v>50</v>
       </c>
       <c r="DC7" t="n">
         <v>1</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="DG7" t="n">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ7" t="n">
         <v>2164568</v>
@@ -3171,53 +3171,53 @@
         <v>932643</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8416666666667</v>
+        <v>6.864</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>1524</v>
+        <v>1603</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3479</v>
+      </c>
+      <c r="L8" t="n">
+        <v>400.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>46</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.695652173913</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.1635</v>
-      </c>
-      <c r="L8" t="n">
-        <v>508</v>
-      </c>
-      <c r="M8" t="n">
-        <v>44</v>
-      </c>
-      <c r="N8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.8181818181818</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
       <c r="U8" t="n">
         <v>1</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
         <v>1</v>
@@ -3237,58 +3237,58 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.62567722</v>
+        <v>2.65910252</v>
       </c>
       <c r="AB8" t="n">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE8" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="AF8" t="n">
-        <v>85.15815085158199</v>
+        <v>84.91879350348</v>
       </c>
       <c r="AG8" t="n">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="AH8" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AI8" t="n">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AJ8" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>62.5</v>
+        <v>61.111111111111</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>21.875</v>
+        <v>21.739130434783</v>
       </c>
       <c r="AO8" t="n">
         <v>4</v>
       </c>
       <c r="AP8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR8" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AS8" t="n">
         <v>7</v>
@@ -3297,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="AU8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -3315,16 +3315,16 @@
         <v>30.188679245283</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BB8" t="n">
-        <v>35.928143712575</v>
+        <v>35.795454545455</v>
       </c>
       <c r="BC8" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BD8" t="n">
-        <v>36.551724137931</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BE8" t="n">
         <v>7</v>
@@ -3333,13 +3333,13 @@
         <v>31.818181818182</v>
       </c>
       <c r="BG8" t="n">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="BH8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BI8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BJ8" t="n">
         <v>17</v>
@@ -3357,22 +3357,22 @@
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>164.2</v>
+        <v>171.6</v>
       </c>
       <c r="BR8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BT8" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3390,37 +3390,37 @@
         <v>8</v>
       </c>
       <c r="BZ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CA8" t="n">
+        <v>24</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>32</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
         <v>23</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>27</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>22</v>
       </c>
       <c r="CK8" t="n">
         <v>4</v>
@@ -3444,16 +3444,16 @@
         <v>12.5</v>
       </c>
       <c r="CR8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CS8" t="n">
         <v>53</v>
       </c>
       <c r="CT8" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="CU8" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="CV8" t="n">
         <v>15</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="DA8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB8" t="n">
-        <v>50</v>
+        <v>53.333333333333</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="DG8" t="n">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>924973</v>
       </c>
       <c r="E9" t="n">
-        <v>6.7684210526316</v>
+        <v>6.79</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>1288</v>
+        <v>1378</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3545,22 +3545,22 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.947</v>
+        <v>3.2366</v>
       </c>
       <c r="L9" t="n">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="M9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>5</v>
       </c>
       <c r="P9" t="n">
-        <v>9.523809523809501</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3593,64 +3593,64 @@
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.17425919</v>
+        <v>1.19105319</v>
       </c>
       <c r="AB9" t="n">
-        <v>774</v>
+        <v>834</v>
       </c>
       <c r="AC9" t="n">
         <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="AF9" t="n">
-        <v>79.472693032015</v>
+        <v>80.35398230088499</v>
       </c>
       <c r="AG9" t="n">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="AH9" t="n">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AI9" t="n">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AJ9" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AK9" t="n">
         <v>7</v>
       </c>
       <c r="AL9" t="n">
-        <v>29.166666666667</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
         <v>5</v>
       </c>
       <c r="AN9" t="n">
-        <v>50</v>
+        <v>45.454545454545</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
         <v>6</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AS9" t="n">
         <v>3</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
         <v>6</v>
@@ -3668,19 +3668,19 @@
         <v>8</v>
       </c>
       <c r="AZ9" t="n">
-        <v>47.058823529412</v>
+        <v>40</v>
       </c>
       <c r="BA9" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="BB9" t="n">
-        <v>50</v>
+        <v>50.641025641026</v>
       </c>
       <c r="BC9" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BD9" t="n">
-        <v>58.415841584158</v>
+        <v>58.558558558559</v>
       </c>
       <c r="BE9" t="n">
         <v>14</v>
@@ -3689,13 +3689,13 @@
         <v>31.111111111111</v>
       </c>
       <c r="BG9" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="BH9" t="n">
         <v>21</v>
       </c>
       <c r="BI9" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BJ9" t="n">
         <v>1</v>
@@ -3713,28 +3713,28 @@
         <v>2</v>
       </c>
       <c r="BO9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>128.6</v>
+        <v>135.8</v>
       </c>
       <c r="BR9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS9" t="n">
         <v>4</v>
       </c>
       <c r="BT9" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CA9" t="n">
         <v>4</v>
       </c>
       <c r="CB9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CD9" t="n">
         <v>17</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CK9" t="n">
         <v>3</v>
@@ -3800,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CS9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CT9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CU9" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="CV9" t="n">
         <v>31</v>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DA9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB9" t="n">
         <v>33.333333333333</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="DG9" t="n">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>1031548</v>
       </c>
       <c r="E10" t="n">
-        <v>6.7</v>
+        <v>6.704347826087</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>2.1004</v>
       </c>
       <c r="L10" t="n">
-        <v>446.5</v>
+        <v>452</v>
       </c>
       <c r="M10" t="n">
         <v>13</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.17247731</v>
+        <v>1.17298647</v>
       </c>
       <c r="AB10" t="n">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
@@ -3961,28 +3961,28 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AF10" t="n">
-        <v>79.399141630901</v>
+        <v>79.324894514768</v>
       </c>
       <c r="AG10" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AH10" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>66.666666666667</v>
+        <v>69.230769230769</v>
       </c>
       <c r="AM10" t="n">
         <v>6</v>
@@ -4006,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>5</v>
@@ -4021,43 +4021,43 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>29.032258064516</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>45.762711864407</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>73</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>46.794871794872</v>
+      </c>
+      <c r="BE10" t="n">
         <v>8</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>27.586206896552</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>78</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>45.614035087719</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>71</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>47.019867549669</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>7</v>
-      </c>
       <c r="BF10" t="n">
+        <v>38.095238095238</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>149</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>31</v>
+      </c>
+      <c r="BI10" t="n">
         <v>35</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>145</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>30</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>34</v>
       </c>
       <c r="BJ10" t="n">
         <v>8</v>
       </c>
       <c r="BK10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>147.4</v>
+        <v>154.2</v>
       </c>
       <c r="BR10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS10" t="n">
         <v>3</v>
       </c>
       <c r="BT10" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4108,13 +4108,13 @@
         <v>3</v>
       </c>
       <c r="CB10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CC10" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD10" t="n">
         <v>4</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>3</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>7</v>
       </c>
       <c r="CS10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CT10" t="n">
         <v>24</v>
       </c>
       <c r="CU10" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="CV10" t="n">
         <v>13</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA10" t="n">
         <v>19</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="DG10" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>1155625</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7692307692308</v>
+        <v>6.7642857142857</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0.5887</v>
       </c>
       <c r="L12" t="n">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="M12" t="n">
         <v>10</v>
@@ -4661,34 +4661,34 @@
         <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.14389449</v>
+        <v>1.16387269</v>
       </c>
       <c r="AB12" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="AC12" t="n">
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AF12" t="n">
-        <v>80.821917808219</v>
+        <v>80.717488789238</v>
       </c>
       <c r="AG12" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AH12" t="n">
         <v>71</v>
       </c>
       <c r="AI12" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AK12" t="n">
         <v>14</v>
@@ -4700,10 +4700,10 @@
         <v>11</v>
       </c>
       <c r="AN12" t="n">
-        <v>31.428571428571</v>
+        <v>30.555555555556</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>7</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
@@ -4733,22 +4733,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>42.424242424242</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB12" t="n">
-        <v>34.883720930233</v>
+        <v>34.831460674157</v>
       </c>
       <c r="BC12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD12" t="n">
-        <v>34.666666666667</v>
+        <v>34.615384615385</v>
       </c>
       <c r="BE12" t="n">
         <v>4</v>
@@ -4757,7 +4757,7 @@
         <v>36.363636363636</v>
       </c>
       <c r="BG12" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BH12" t="n">
         <v>11</v>
@@ -4787,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>88</v>
+        <v>94.7</v>
       </c>
       <c r="BR12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS12" t="n">
         <v>5</v>
       </c>
       <c r="BT12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="CB12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC12" t="n">
         <v>20</v>
@@ -4868,16 +4868,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS12" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CT12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CU12" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CV12" t="n">
         <v>7</v>
@@ -4913,7 +4913,7 @@
         <v>80</v>
       </c>
       <c r="DG12" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4944,318 +4944,318 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Daniel Boloca</t>
+          <t>Luca Lipani</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>882592</v>
+        <v>1154898</v>
       </c>
       <c r="E13" t="n">
-        <v>6.45</v>
+        <v>6.4916666666667</v>
       </c>
       <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>569</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6238</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9</v>
+      </c>
+      <c r="N13" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="n">
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.20809236</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>208</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81.56862745098</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>255</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>94</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>114</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>135</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="AR13" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
         <v>2</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.02305369</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>53</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>94.642857142857</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>56</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>31</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AZ13" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>38.461538461538</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>36.363636363636</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>72</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>47</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK13" t="n">
         <v>2</v>
       </c>
-      <c r="AL13" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ13" t="n">
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>48</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>6</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>20</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="DB13" t="n">
         <v>50</v>
       </c>
-      <c r="BA13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>44.444444444444</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>5</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>3</v>
-      </c>
-      <c r="DA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>100</v>
-      </c>
       <c r="DC13" t="n">
         <v>0</v>
       </c>
@@ -5266,19 +5266,19 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="DG13" t="n">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ13" t="n">
-        <v>2164558</v>
+        <v>2164571</v>
       </c>
       <c r="DK13" t="inlineStr">
         <is>
@@ -5300,317 +5300,317 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Luca Lipani</t>
+          <t>Daniel Boloca</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1154898</v>
+        <v>882592</v>
       </c>
       <c r="E14" t="n">
-        <v>6.5090909090909</v>
+        <v>6.45</v>
       </c>
       <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>135</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.02305369</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>53</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>94.642857142857</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>56</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
         <v>11</v>
       </c>
-      <c r="G14" t="n">
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>44.444444444444</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU14" t="n">
         <v>5</v>
       </c>
-      <c r="H14" t="n">
-        <v>479</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.5822000000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="CV14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA14" t="n">
         <v>2</v>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.20217663</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>296</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>174</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>81.308411214953</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>214</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>94</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>40.322580645161</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>20</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>37.735849056604</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>62</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>8</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>11</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>40</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>9</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>5</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>37</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>16</v>
-      </c>
-      <c r="DA14" t="n">
-        <v>8</v>
-      </c>
       <c r="DB14" t="n">
-        <v>53.333333333333</v>
+        <v>100</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5622,19 +5622,19 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="DG14" t="n">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>2164571</v>
+        <v>2164558</v>
       </c>
       <c r="DK14" t="inlineStr">
         <is>
@@ -6019,16 +6019,16 @@
         <v>933641</v>
       </c>
       <c r="E16" t="n">
-        <v>6.604347826087</v>
+        <v>6.5958333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" t="n">
-        <v>2069</v>
+        <v>2159</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.52880291</v>
+        <v>0.5321026</v>
       </c>
       <c r="AB16" t="n">
-        <v>1190</v>
+        <v>1246</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
@@ -6097,28 +6097,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="AF16" t="n">
-        <v>89.92576882290599</v>
+        <v>90.172239108409</v>
       </c>
       <c r="AG16" t="n">
-        <v>943</v>
+        <v>987</v>
       </c>
       <c r="AH16" t="n">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="AI16" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AJ16" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>36.363636363636</v>
+        <v>37.179487179487</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -6136,13 +6136,13 @@
         <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT16" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
@@ -6163,28 +6163,28 @@
         <v>83.333333333333</v>
       </c>
       <c r="BA16" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB16" t="n">
-        <v>48</v>
+        <v>47.402597402597</v>
       </c>
       <c r="BC16" t="n">
         <v>36</v>
       </c>
       <c r="BD16" t="n">
-        <v>54.545454545455</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BE16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BF16" t="n">
-        <v>42.857142857143</v>
+        <v>43.023255813953</v>
       </c>
       <c r="BG16" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BH16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI16" t="n">
         <v>10</v>
@@ -6205,22 +6205,22 @@
         <v>5</v>
       </c>
       <c r="BO16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>151.9</v>
+        <v>158.3</v>
       </c>
       <c r="BR16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS16" t="n">
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6247,10 +6247,10 @@
         <v>2</v>
       </c>
       <c r="CC16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CD16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CK16" t="n">
         <v>3</v>
@@ -6301,22 +6301,22 @@
         <v>1</v>
       </c>
       <c r="CU16" t="n">
+        <v>81</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>49</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
         <v>78</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>48</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>77</v>
       </c>
       <c r="DA16" t="n">
         <v>11</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="DG16" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="DH16" t="n">
         <v>7</v>
@@ -6375,16 +6375,16 @@
         <v>1118177</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8619047619048</v>
+        <v>6.8363636363636</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>1890</v>
+        <v>1935</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>0.8815</v>
       </c>
       <c r="L17" t="n">
-        <v>945</v>
+        <v>967.5</v>
       </c>
       <c r="M17" t="n">
         <v>13</v>
@@ -6441,10 +6441,10 @@
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.30521616</v>
+        <v>0.30867826</v>
       </c>
       <c r="AB17" t="n">
-        <v>1405</v>
+        <v>1451</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6453,28 +6453,28 @@
         <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>895</v>
+        <v>931</v>
       </c>
       <c r="AF17" t="n">
-        <v>84.116541353383</v>
+        <v>84.177215189873</v>
       </c>
       <c r="AG17" t="n">
-        <v>1064</v>
+        <v>1106</v>
       </c>
       <c r="AH17" t="n">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="AI17" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AJ17" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AL17" t="n">
-        <v>38.75</v>
+        <v>39.759036144578</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>34</v>
       </c>
       <c r="AP17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
@@ -6495,10 +6495,10 @@
         <v>65</v>
       </c>
       <c r="AS17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT17" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AU17" t="n">
         <v>6</v>
@@ -6519,28 +6519,28 @@
         <v>62.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>65.131578947368</v>
+        <v>63.924050632911</v>
       </c>
       <c r="BC17" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BD17" t="n">
-        <v>64.864864864865</v>
+        <v>62.820512820513</v>
       </c>
       <c r="BE17" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BF17" t="n">
-        <v>65.384615384615</v>
+        <v>65</v>
       </c>
       <c r="BG17" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="BH17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BI17" t="n">
         <v>17</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6561,22 +6561,22 @@
         <v>4</v>
       </c>
       <c r="BO17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>144.1</v>
+        <v>150.4</v>
       </c>
       <c r="BR17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS17" t="n">
         <v>4</v>
       </c>
       <c r="BT17" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6603,10 +6603,10 @@
         <v>1</v>
       </c>
       <c r="CC17" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="CD17" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CE17" t="n">
         <v>2</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CK17" t="n">
         <v>4</v>
@@ -6657,10 +6657,10 @@
         <v>2</v>
       </c>
       <c r="CU17" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="CV17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="DA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB17" t="n">
-        <v>46.666666666667</v>
+        <v>48.387096774194</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="DG17" t="n">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="DH17" t="n">
         <v>26</v>
@@ -6731,16 +6731,16 @@
         <v>989894</v>
       </c>
       <c r="E18" t="n">
-        <v>6.5222222222222</v>
+        <v>6.58</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.20636521</v>
+        <v>0.21042579</v>
       </c>
       <c r="AB18" t="n">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6809,25 +6809,25 @@
         <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>90.55118110236199</v>
+        <v>90.90909090909101</v>
       </c>
       <c r="AG18" t="n">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="AH18" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AI18" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL18" t="n">
         <v>100</v>
@@ -6842,19 +6842,19 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT18" t="n">
         <v>4</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -6875,37 +6875,37 @@
         <v>80</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>46.153846153846</v>
+        <v>48.888888888889</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD18" t="n">
-        <v>47.222222222222</v>
+        <v>50</v>
       </c>
       <c r="BE18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF18" t="n">
-        <v>33.333333333333</v>
+        <v>40</v>
       </c>
       <c r="BG18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BH18" t="n">
         <v>7</v>
       </c>
       <c r="BI18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>58.7</v>
+        <v>65.8</v>
       </c>
       <c r="BR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6959,10 +6959,10 @@
         <v>7</v>
       </c>
       <c r="CC18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD18" t="n">
         <v>3</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>2</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7013,10 +7013,10 @@
         <v>4</v>
       </c>
       <c r="CU18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CV18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DA18" t="n">
         <v>4</v>
       </c>
       <c r="DB18" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="DG18" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7087,16 +7087,16 @@
         <v>886243</v>
       </c>
       <c r="E19" t="n">
-        <v>6.6869565217391</v>
+        <v>6.6916666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>1958</v>
+        <v>2048</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7153,64 +7153,64 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.91171771</v>
+        <v>1.94190011</v>
       </c>
       <c r="AB19" t="n">
-        <v>1318</v>
+        <v>1365</v>
       </c>
       <c r="AC19" t="n">
         <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="AF19" t="n">
-        <v>84.22247446084</v>
+        <v>84.262295081967</v>
       </c>
       <c r="AG19" t="n">
-        <v>881</v>
+        <v>915</v>
       </c>
       <c r="AH19" t="n">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="AI19" t="n">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AJ19" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL19" t="n">
-        <v>46.875</v>
+        <v>46.268656716418</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>41.860465116279</v>
+        <v>43.181818181818</v>
       </c>
       <c r="AO19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP19" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
         <v>3</v>
       </c>
       <c r="AR19" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
@@ -7228,34 +7228,34 @@
         <v>14</v>
       </c>
       <c r="AZ19" t="n">
-        <v>58.333333333333</v>
+        <v>56</v>
       </c>
       <c r="BA19" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="BB19" t="n">
-        <v>51.87969924812</v>
+        <v>52.112676056338</v>
       </c>
       <c r="BC19" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BD19" t="n">
-        <v>51.456310679612</v>
+        <v>51.818181818182</v>
       </c>
       <c r="BE19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BF19" t="n">
-        <v>53.333333333333</v>
+        <v>53.125</v>
       </c>
       <c r="BG19" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="BH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
@@ -7273,22 +7273,22 @@
         <v>4</v>
       </c>
       <c r="BO19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>153.8</v>
+        <v>160.6</v>
       </c>
       <c r="BR19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS19" t="n">
         <v>1</v>
       </c>
       <c r="BT19" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>10</v>
       </c>
       <c r="CC19" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CD19" t="n">
         <v>26</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CK19" t="n">
         <v>4</v>
@@ -7360,37 +7360,37 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CS19" t="n">
+        <v>25</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>44</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>68</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>15</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="DA19" t="n">
         <v>24</v>
       </c>
-      <c r="CT19" t="n">
-        <v>43</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>64</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>14</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>64</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>21</v>
-      </c>
       <c r="DB19" t="n">
-        <v>67.741935483871</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7402,16 +7402,16 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="DG19" t="n">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DJ19" t="n">
         <v>2164573</v>
@@ -7443,16 +7443,16 @@
         <v>989276</v>
       </c>
       <c r="E20" t="n">
-        <v>6.604347826087</v>
+        <v>6.6166666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>1679</v>
+        <v>1724</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7509,31 +7509,31 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.78813581</v>
+        <v>0.84378131</v>
       </c>
       <c r="AB20" t="n">
-        <v>1103</v>
+        <v>1136</v>
       </c>
       <c r="AC20" t="n">
         <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="AF20" t="n">
-        <v>80.15748031496101</v>
+        <v>80.49155145929301</v>
       </c>
       <c r="AG20" t="n">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="AH20" t="n">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AI20" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AJ20" t="n">
         <v>107</v>
@@ -7545,28 +7545,28 @@
         <v>21.818181818182</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>31.034482758621</v>
+        <v>31.25</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AS20" t="n">
         <v>7</v>
       </c>
       <c r="AT20" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AU20" t="n">
         <v>1</v>
@@ -7584,28 +7584,28 @@
         <v>9</v>
       </c>
       <c r="AZ20" t="n">
-        <v>34.615384615385</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA20" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BB20" t="n">
-        <v>51.948051948052</v>
+        <v>52.5</v>
       </c>
       <c r="BC20" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BD20" t="n">
-        <v>53.535353535354</v>
+        <v>54.368932038835</v>
       </c>
       <c r="BE20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BF20" t="n">
-        <v>49.090909090909</v>
+        <v>49.122807017544</v>
       </c>
       <c r="BG20" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="BH20" t="n">
         <v>14</v>
@@ -7629,22 +7629,22 @@
         <v>4</v>
       </c>
       <c r="BO20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>151.9</v>
+        <v>158.8</v>
       </c>
       <c r="BR20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK20" t="n">
         <v>4</v>
@@ -7716,19 +7716,19 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CT20" t="n">
+        <v>32</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>76</v>
+      </c>
+      <c r="CV20" t="n">
         <v>29</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>74</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>28</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7743,10 +7743,10 @@
         <v>55</v>
       </c>
       <c r="DA20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DB20" t="n">
-        <v>67.857142857143</v>
+        <v>64.51612903225799</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,16 +7758,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="DG20" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DJ20" t="n">
         <v>2164553</v>
@@ -7799,16 +7799,16 @@
         <v>558320</v>
       </c>
       <c r="E21" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7860,37 +7860,37 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.00041676</v>
+        <v>0.54763476</v>
       </c>
       <c r="AB21" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>100</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK21" t="n">
         <v>1</v>
@@ -7899,10 +7899,10 @@
         <v>100</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AO21" t="n">
         <v>0</v>
@@ -7914,13 +7914,13 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
@@ -7989,13 +7989,13 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>6.2</v>
+        <v>14.4</v>
       </c>
       <c r="BR21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" t="n">
         <v>0</v>
@@ -8025,16 +8025,16 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
       </c>
       <c r="CF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG21" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS21" t="n">
         <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU21" t="n">
         <v>1</v>
@@ -8112,10 +8112,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DG21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -8865,16 +8865,16 @@
         <v>888971</v>
       </c>
       <c r="E24" t="n">
-        <v>7.1391304347826</v>
+        <v>7.125</v>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="n">
-        <v>2070</v>
+        <v>2160</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.05059797</v>
+        <v>0.05218772</v>
       </c>
       <c r="AB24" t="n">
-        <v>1014</v>
+        <v>1053</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8941,28 +8941,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="AF24" t="n">
-        <v>62.42774566474</v>
+        <v>62.290502793296</v>
       </c>
       <c r="AG24" t="n">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="AH24" t="n">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AI24" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AJ24" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AL24" t="n">
-        <v>37.897310513447</v>
+        <v>37.58865248227</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8980,13 +8980,13 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>92.30769230769199</v>
       </c>
       <c r="BG24" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="BH24" t="n">
         <v>1</v>
@@ -9043,28 +9043,28 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BN24" t="n">
         <v>5</v>
       </c>
       <c r="BO24" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>164.2</v>
+        <v>171</v>
       </c>
       <c r="BR24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9106,13 +9106,13 @@
         <v>4</v>
       </c>
       <c r="CH24" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CI24" t="n">
         <v>31</v>
       </c>
       <c r="CJ24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CK24" t="n">
         <v>3</v>
@@ -9121,13 +9121,13 @@
         <v>14</v>
       </c>
       <c r="CM24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CN24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CO24" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CP24" t="n">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>19</v>
       </c>
       <c r="DF24" t="n">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="DG24" t="n">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="DH24" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>2.3116</v>
+        <v>2.1387</v>
       </c>
     </row>
     <row r="25">
